--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:04:45+00:00</t>
+    <t>2022-04-13T17:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:26:31+00:00</t>
+    <t>2022-04-13T17:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:32:05+00:00</t>
+    <t>2022-04-13T17:40:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:40:16+00:00</t>
+    <t>2022-04-13T17:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0-S37</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:46:21+00:00</t>
+    <t>2022-04-13T18:50:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T18:50:27+00:00</t>
+    <t>2022-04-13T18:56:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T18:56:53+00:00</t>
+    <t>2022-04-13T18:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T18:59:18+00:00</t>
+    <t>2022-04-13T20:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://science37.com/StructureDefinition/settings</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -276,7 +276,7 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>9</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -299,7 +299,10 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>type</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>"title"*</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -346,22 +349,25 @@
 </t>
   </si>
   <si>
-    <t>unknownStatus</t>
+    <t>label</t>
+  </si>
+  <si>
+    <t>OID</t>
+  </si>
+  <si>
+    <t>standardVariable</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>subStatus</t>
+  </si>
+  <si>
+    <t>deteted</t>
   </si>
   <si>
     <t>controlSchemaVersion</t>
-  </si>
-  <si>
-    <t>OID</t>
-  </si>
-  <si>
-    <t>standardVariable</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>buildLanguage</t>
@@ -1165,7 +1171,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>79</v>
@@ -1183,7 +1189,7 @@
         <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>88</v>
@@ -1257,7 +1263,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1357,7 +1363,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1457,7 +1463,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1480,16 +1486,16 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1539,7 +1545,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -1554,12 +1560,12 @@
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1585,10 +1591,10 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1639,7 +1645,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -1651,10 +1657,10 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1668,7 @@
         <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>73</v>
@@ -1687,7 +1693,7 @@
         <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>88</v>
@@ -1761,7 +1767,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1861,7 +1867,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1961,7 +1967,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1984,16 +1990,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2001,7 +2007,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>73</v>
@@ -2043,7 +2049,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -2058,12 +2064,12 @@
         <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2089,10 +2095,10 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2143,7 +2149,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2155,10 +2161,10 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -2166,7 +2172,7 @@
         <v>85</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>73</v>
@@ -2191,7 +2197,7 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>88</v>
@@ -2265,7 +2271,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2365,7 +2371,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2465,7 +2471,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2488,16 +2494,16 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2505,7 +2511,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>73</v>
@@ -2547,7 +2553,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -2562,12 +2568,12 @@
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2593,10 +2599,10 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2647,7 +2653,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -2659,10 +2665,10 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -2670,14 +2676,14 @@
         <v>85</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>79</v>
@@ -2695,7 +2701,7 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>88</v>
@@ -2769,7 +2775,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2869,7 +2875,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2969,7 +2975,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2992,16 +2998,16 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3009,7 +3015,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>73</v>
@@ -3051,7 +3057,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -3066,12 +3072,12 @@
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3097,10 +3103,10 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3151,7 +3157,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3163,10 +3169,10 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -3174,7 +3180,7 @@
         <v>85</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>73</v>
@@ -3199,7 +3205,7 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>88</v>
@@ -3273,7 +3279,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3373,7 +3379,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3473,7 +3479,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3496,16 +3502,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3513,7 +3519,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>73</v>
@@ -3555,7 +3561,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -3570,12 +3576,12 @@
         <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3601,10 +3607,10 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3655,7 +3661,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -3667,10 +3673,10 @@
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -3678,14 +3684,14 @@
         <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>79</v>
@@ -3703,7 +3709,7 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>88</v>
@@ -3777,7 +3783,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3877,7 +3883,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3977,7 +3983,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4000,16 +4006,16 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4017,7 +4023,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>73</v>
@@ -4059,7 +4065,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -4074,12 +4080,12 @@
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4105,10 +4111,10 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4159,7 +4165,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -4171,10 +4177,10 @@
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -4182,14 +4188,14 @@
         <v>85</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>79</v>
@@ -4207,7 +4213,7 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>88</v>
@@ -4281,7 +4287,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4381,7 +4387,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4481,7 +4487,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4504,16 +4510,16 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -4521,7 +4527,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>73</v>
@@ -4563,7 +4569,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -4578,12 +4584,12 @@
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4609,10 +4615,10 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4663,7 +4669,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -4675,10 +4681,10 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -4686,7 +4692,7 @@
         <v>85</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>73</v>
@@ -4711,7 +4717,7 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>88</v>
@@ -4785,7 +4791,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4885,7 +4891,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -4985,7 +4991,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5008,16 +5014,16 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5025,7 +5031,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>73</v>
@@ -5067,7 +5073,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -5082,12 +5088,12 @@
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5113,10 +5119,10 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5167,7 +5173,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -5179,10 +5185,10 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -5190,7 +5196,7 @@
         <v>85</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>73</v>
@@ -5215,7 +5221,7 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>88</v>
@@ -5289,7 +5295,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5389,7 +5395,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5489,7 +5495,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5512,16 +5518,16 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -5529,7 +5535,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>73</v>
@@ -5571,7 +5577,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -5586,12 +5592,12 @@
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5614,13 +5620,13 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5671,7 +5677,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -5683,10 +5689,10 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50">
@@ -5694,7 +5700,7 @@
         <v>85</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>73</v>
@@ -5719,7 +5725,7 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>88</v>
@@ -5793,7 +5799,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5893,7 +5899,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -5993,7 +5999,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6016,16 +6022,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6033,7 +6039,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>73</v>
@@ -6075,7 +6081,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -6090,12 +6096,12 @@
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6118,13 +6124,13 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6175,7 +6181,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -6187,10 +6193,10 @@
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55">
@@ -6198,7 +6204,7 @@
         <v>85</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>73</v>
@@ -6223,7 +6229,7 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>88</v>
@@ -6297,7 +6303,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6397,7 +6403,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6497,7 +6503,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6520,16 +6526,16 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -6537,7 +6543,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>73</v>
@@ -6579,7 +6585,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -6594,12 +6600,12 @@
         <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6622,13 +6628,13 @@
         <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6679,7 +6685,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -6691,10 +6697,10 @@
         <v>73</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60">
@@ -6702,7 +6708,7 @@
         <v>85</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>73</v>
@@ -6727,7 +6733,7 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>88</v>
@@ -6801,7 +6807,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -6901,7 +6907,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7001,7 +7007,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7024,16 +7030,16 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -7041,7 +7047,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>73</v>
@@ -7083,7 +7089,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -7098,12 +7104,12 @@
         <v>73</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7126,13 +7132,13 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7183,7 +7189,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -7195,10 +7201,10 @@
         <v>73</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65">
@@ -7206,7 +7212,7 @@
         <v>85</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>73</v>
@@ -7231,7 +7237,7 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>88</v>
@@ -7305,7 +7311,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7405,7 +7411,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7505,7 +7511,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7528,16 +7534,16 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -7545,7 +7551,7 @@
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>73</v>
@@ -7587,7 +7593,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -7602,12 +7608,12 @@
         <v>73</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -7630,13 +7636,13 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -7687,7 +7693,7 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -7699,15 +7705,15 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -7730,16 +7736,16 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -7789,7 +7795,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -7804,12 +7810,12 @@
         <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -7832,13 +7838,13 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -7889,7 +7895,7 @@
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -7901,10 +7907,10 @@
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T20:17:19+00:00</t>
+    <t>2022-04-14T15:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T15:41:09+00:00</t>
+    <t>2022-04-14T16:01:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T16:01:14+00:00</t>
+    <t>2022-04-14T16:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T16:18:32+00:00</t>
+    <t>2022-04-14T16:39:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T16:39:25+00:00</t>
+    <t>2022-04-14T17:25:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T17:25:25+00:00</t>
+    <t>2022-04-14T18:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/form-settings</t>
+    <t>http://science37.com/fhir/StructureDefinition/form-settings</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T18:16:16+00:00</t>
+    <t>2022-04-19T19:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/settings</t>
+    <t>http://science37.com/fhir/StructureDefinition/settings</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -356,6 +356,13 @@
   </si>
   <si>
     <t>standardVariable</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
   </si>
   <si>
     <t>type</t>
@@ -702,7 +709,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ71"/>
+  <dimension ref="A1:AJ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3187,7 +3194,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>79</v>
@@ -3604,7 +3611,7 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>105</v>
@@ -3684,14 +3691,14 @@
         <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>79</v>
@@ -4023,7 +4030,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>73</v>
@@ -4213,7 +4220,7 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>88</v>
@@ -4692,14 +4699,14 @@
         <v>85</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>79</v>
@@ -4717,7 +4724,7 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>88</v>
@@ -5031,7 +5038,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>73</v>
@@ -5196,7 +5203,7 @@
         <v>85</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>73</v>
@@ -5221,7 +5228,7 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>88</v>
@@ -5535,7 +5542,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>73</v>
@@ -5620,7 +5627,7 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>105</v>
@@ -6124,7 +6131,7 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>105</v>
@@ -6204,7 +6211,7 @@
         <v>85</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>73</v>
@@ -6229,7 +6236,7 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>88</v>
@@ -6543,7 +6550,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>73</v>
@@ -6628,7 +6635,7 @@
         <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>105</v>
@@ -6708,14 +6715,14 @@
         <v>85</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>79</v>
@@ -6733,7 +6740,7 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>88</v>
@@ -7047,7 +7054,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>73</v>
@@ -7132,7 +7139,7 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>105</v>
@@ -7636,7 +7643,7 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>105</v>
@@ -7713,15 +7720,17 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>79</v>
@@ -7736,24 +7745,22 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>73</v>
@@ -7795,27 +7802,27 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -7826,7 +7833,7 @@
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
@@ -7838,13 +7845,13 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -7895,21 +7902,525 @@
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AF71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI71" t="s" s="2">
+      <c r="AF74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI74" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AJ71" t="s" s="2">
+      <c r="AJ74" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>103</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:24:07+00:00</t>
+    <t>2022-04-19T19:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:32:38+00:00</t>
+    <t>2022-04-19T20:00:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:00:50+00:00</t>
+    <t>2022-04-19T20:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-form-settings.xlsx
+++ b/branches/master/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:15:26+00:00</t>
+    <t>2022-04-21T13:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
